--- a/modelo_preenchido.xlsx
+++ b/modelo_preenchido.xlsx
@@ -3962,7 +3962,7 @@
     <col width="32.1640625" bestFit="1" customWidth="1" min="11" max="11"/>
     <col width="25.83203125" customWidth="1" min="12" max="12"/>
     <col width="3.6640625" customWidth="1" min="13" max="13"/>
-    <col hidden="1" width="13" customWidth="1" min="14" max="14"/>
+    <col hidden="1" min="14" max="14"/>
     <col hidden="1" width="8.83203125" customWidth="1" min="15" max="16384"/>
   </cols>
   <sheetData>
@@ -6166,8 +6166,9 @@
       <c r="D91" s="250" t="n">
         <v>3102978.5</v>
       </c>
-      <c r="E91" s="250" t="n">
-        <v>2627506.52</v>
+      <c r="E91" s="250">
+        <f>IFERROR(VLOOKUP($B$91,#REF!,6,0)*-1,0)</f>
+        <v/>
       </c>
       <c r="F91" s="250">
         <f>IFERROR(VLOOKUP($B$91,#REF!,6,0)*-1,0)</f>
@@ -6210,8 +6211,9 @@
       <c r="D92" s="256" t="n">
         <v>736843.98</v>
       </c>
-      <c r="E92" s="256" t="n">
-        <v>554881.52</v>
+      <c r="E92" s="256">
+        <f>IFERROR(VLOOKUP($B$92,#REF!,6,0),0)</f>
+        <v/>
       </c>
       <c r="F92" s="256">
         <f>IFERROR(VLOOKUP($B$92,#REF!,6,0),0)</f>
@@ -6254,8 +6256,9 @@
       <c r="D93" s="256" t="n">
         <v>13736.81</v>
       </c>
-      <c r="E93" s="256" t="n">
-        <v>12574.16</v>
+      <c r="E93" s="256">
+        <f>IFERROR(VLOOKUP($B$93,#REF!,6,0)*-1,0)</f>
+        <v/>
       </c>
       <c r="F93" s="256">
         <f>IFERROR(VLOOKUP($B$93,#REF!,6,0)*-1,0)</f>
@@ -6299,8 +6302,9 @@
         <f>IFERROR((VLOOKUP($B$94,#REF!,6,0)*-1)-D95,0)</f>
         <v/>
       </c>
-      <c r="E94" s="256" t="n">
-        <v>242409.14</v>
+      <c r="E94" s="256">
+        <f>IFERROR((VLOOKUP($B$94,#REF!,6,0)*-1)-E95,0)</f>
+        <v/>
       </c>
       <c r="F94" s="256">
         <f>IFERROR((VLOOKUP($B$94,#REF!,6,0)*-1)-F95,0)</f>
@@ -6378,8 +6382,9 @@
       <c r="D96" s="258" t="n">
         <v>232519.77</v>
       </c>
-      <c r="E96" s="258" t="n">
-        <v>178010.62</v>
+      <c r="E96" s="258">
+        <f>IFERROR(VLOOKUP($B$96,#REF!,6,0),0)</f>
+        <v/>
       </c>
       <c r="F96" s="258">
         <f>IFERROR(VLOOKUP($B$96,#REF!,6,0),0)</f>
@@ -6418,8 +6423,9 @@
       <c r="D97" s="256" t="n">
         <v>1678159.06</v>
       </c>
-      <c r="E97" s="256" t="n">
-        <v>1415075.36</v>
+      <c r="E97" s="256">
+        <f>IFERROR(VLOOKUP($B$97,#REF!,6,0),0)</f>
+        <v/>
       </c>
       <c r="F97" s="256">
         <f>IFERROR(VLOOKUP($B$97,#REF!,6,0),0)</f>
@@ -6677,8 +6683,9 @@
       <c r="D105" s="256" t="n">
         <v>2921910.98</v>
       </c>
-      <c r="E105" s="256" t="n">
-        <v>6369494.4</v>
+      <c r="E105" s="256">
+        <f>IFERROR(VLOOKUP(B105,#REF!,7,0),0)</f>
+        <v/>
       </c>
       <c r="F105" s="256">
         <f>IFERROR(VLOOKUP(B105,#REF!,7,0),0)</f>
@@ -6878,8 +6885,9 @@
       <c r="D113" s="284" t="n">
         <v>0</v>
       </c>
-      <c r="E113" s="256" t="n">
-        <v>0</v>
+      <c r="E113" s="256">
+        <f>D116</f>
+        <v/>
       </c>
       <c r="F113" s="256">
         <f>E116</f>
@@ -6954,8 +6962,9 @@
       <c r="D115" s="268" t="n">
         <v>50000</v>
       </c>
-      <c r="E115" s="268" t="n">
-        <v>100000</v>
+      <c r="E115" s="268">
+        <f>IFERROR(VLOOKUP(B115,#REF!,6,0),0)</f>
+        <v/>
       </c>
       <c r="F115" s="268">
         <f>IFERROR(VLOOKUP(B115,#REF!,6,0),0)</f>

--- a/modelo_preenchido.xlsx
+++ b/modelo_preenchido.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" tabRatio="728" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" tabRatio="728" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções" sheetId="1" state="visible" r:id="rId1"/>
@@ -3943,8 +3943,8 @@
   </sheetPr>
   <dimension ref="A3:M158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -6166,13 +6166,11 @@
       <c r="D91" s="250" t="n">
         <v>3102978.5</v>
       </c>
-      <c r="E91" s="250">
-        <f>IFERROR(VLOOKUP($B$91,#REF!,6,0)*-1,0)</f>
-        <v/>
-      </c>
-      <c r="F91" s="250">
-        <f>IFERROR(VLOOKUP($B$91,#REF!,6,0)*-1,0)</f>
-        <v/>
+      <c r="E91" s="250" t="n">
+        <v>2627506.52</v>
+      </c>
+      <c r="F91" s="250" t="n">
+        <v>4861666.72</v>
       </c>
       <c r="G91" s="251">
         <f>SUM(D91:F91)</f>
@@ -6211,13 +6209,11 @@
       <c r="D92" s="256" t="n">
         <v>736843.98</v>
       </c>
-      <c r="E92" s="256">
-        <f>IFERROR(VLOOKUP($B$92,#REF!,6,0),0)</f>
-        <v/>
-      </c>
-      <c r="F92" s="256">
-        <f>IFERROR(VLOOKUP($B$92,#REF!,6,0),0)</f>
-        <v/>
+      <c r="E92" s="256" t="n">
+        <v>554881.52</v>
+      </c>
+      <c r="F92" s="256" t="n">
+        <v>1170558.79</v>
       </c>
       <c r="G92" s="257">
         <f>SUM(D92:F92)</f>
@@ -6256,13 +6252,11 @@
       <c r="D93" s="256" t="n">
         <v>13736.81</v>
       </c>
-      <c r="E93" s="256">
-        <f>IFERROR(VLOOKUP($B$93,#REF!,6,0)*-1,0)</f>
-        <v/>
-      </c>
-      <c r="F93" s="256">
-        <f>IFERROR(VLOOKUP($B$93,#REF!,6,0)*-1,0)</f>
-        <v/>
+      <c r="E93" s="256" t="n">
+        <v>12574.16</v>
+      </c>
+      <c r="F93" s="256" t="n">
+        <v>8079.5</v>
       </c>
       <c r="G93" s="257">
         <f>SUM(D93:F93)</f>
@@ -6302,13 +6296,11 @@
         <f>IFERROR((VLOOKUP($B$94,#REF!,6,0)*-1)-D95,0)</f>
         <v/>
       </c>
-      <c r="E94" s="256">
-        <f>IFERROR((VLOOKUP($B$94,#REF!,6,0)*-1)-E95,0)</f>
-        <v/>
-      </c>
-      <c r="F94" s="256">
-        <f>IFERROR((VLOOKUP($B$94,#REF!,6,0)*-1)-F95,0)</f>
-        <v/>
+      <c r="E94" s="256" t="n">
+        <v>242409.14</v>
+      </c>
+      <c r="F94" s="256" t="n">
+        <v>0</v>
       </c>
       <c r="G94" s="257">
         <f>SUM(D94:F94)</f>
@@ -6382,13 +6374,11 @@
       <c r="D96" s="258" t="n">
         <v>232519.77</v>
       </c>
-      <c r="E96" s="258">
-        <f>IFERROR(VLOOKUP($B$96,#REF!,6,0),0)</f>
-        <v/>
-      </c>
-      <c r="F96" s="258">
-        <f>IFERROR(VLOOKUP($B$96,#REF!,6,0),0)</f>
-        <v/>
+      <c r="E96" s="258" t="n">
+        <v>178010.62</v>
+      </c>
+      <c r="F96" s="258" t="n">
+        <v>927997.51</v>
       </c>
       <c r="G96" s="257">
         <f>SUM(D96:F96)</f>
@@ -6423,13 +6413,11 @@
       <c r="D97" s="256" t="n">
         <v>1678159.06</v>
       </c>
-      <c r="E97" s="256">
-        <f>IFERROR(VLOOKUP($B$97,#REF!,6,0),0)</f>
-        <v/>
-      </c>
-      <c r="F97" s="256">
-        <f>IFERROR(VLOOKUP($B$97,#REF!,6,0),0)</f>
-        <v/>
+      <c r="E97" s="256" t="n">
+        <v>1415075.36</v>
+      </c>
+      <c r="F97" s="256" t="n">
+        <v>2650275.19</v>
       </c>
       <c r="G97" s="257">
         <f>SUM(D97:F97)</f>
@@ -6683,13 +6671,11 @@
       <c r="D105" s="256" t="n">
         <v>2921910.98</v>
       </c>
-      <c r="E105" s="256">
-        <f>IFERROR(VLOOKUP(B105,#REF!,7,0),0)</f>
-        <v/>
-      </c>
-      <c r="F105" s="256">
-        <f>IFERROR(VLOOKUP(B105,#REF!,7,0),0)</f>
-        <v/>
+      <c r="E105" s="256" t="n">
+        <v>6369494.4</v>
+      </c>
+      <c r="F105" s="256" t="n">
+        <v>6061532.9</v>
       </c>
       <c r="G105" s="266">
         <f>F105</f>
@@ -6885,13 +6871,11 @@
       <c r="D113" s="284" t="n">
         <v>0</v>
       </c>
-      <c r="E113" s="256">
-        <f>D116</f>
-        <v/>
-      </c>
-      <c r="F113" s="256">
-        <f>E116</f>
-        <v/>
+      <c r="E113" s="256" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" s="256" t="n">
+        <v>0</v>
       </c>
       <c r="G113" s="256">
         <f>D113</f>
@@ -6962,13 +6946,11 @@
       <c r="D115" s="268" t="n">
         <v>50000</v>
       </c>
-      <c r="E115" s="268">
-        <f>IFERROR(VLOOKUP(B115,#REF!,6,0),0)</f>
-        <v/>
-      </c>
-      <c r="F115" s="268">
-        <f>IFERROR(VLOOKUP(B115,#REF!,6,0),0)</f>
-        <v/>
+      <c r="E115" s="268" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F115" s="268" t="n">
+        <v>100000</v>
       </c>
       <c r="G115" s="269">
         <f>SUM(D115:F115)</f>
